--- a/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>130,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>291,58%</t>
+          <t>102,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>87,48%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>318,93%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>152,86%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 8,19</t>
+          <t>-1,87; 7,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,77</t>
+          <t>-1,21; 6,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,46</t>
+          <t>1,99; 7,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,24</t>
+          <t>-0,31; 10,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 704,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 145,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,16; 1233,16</t>
+          <t>-63,03; 1162,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 75,83</t>
+          <t>-28,67; 388,73</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>73,07; 1304,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-24,47; 832,95</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>127,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>132,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>101,72%</t>
+          <t>94,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>79,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>101,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,41</t>
+          <t>-1,61; 9,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,59</t>
+          <t>-0,27; 4,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,71</t>
+          <t>-1,47; 5,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,8</t>
+          <t>0,21; 7,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 343,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 228,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 263,29</t>
+          <t>-48,18; 642,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 259,16</t>
+          <t>-22,08; 357,94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-28,25; 271,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 324,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>130,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,27</t>
+          <t>-7,37; 4,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,67</t>
+          <t>-1,08; 6,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,83</t>
+          <t>-1,85; 4,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 3,84</t>
+          <t>-8,0; 4,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 150,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 346,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 179,95</t>
+          <t>-74,11; 253,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 89,2</t>
+          <t>-32,59; 520,11</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 195,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-67,43; 168,02</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>136,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>-23,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,98</t>
+          <t>1,62; 7,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,25</t>
+          <t>-4,08; 1,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,77</t>
+          <t>-2,36; 4,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 188,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 143,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 188,37</t>
+          <t>31,28; 339,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 89,56</t>
+          <t>-65,85; 86,8</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-44,35; 167,4</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>98,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51,08%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 5,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 3,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 4,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 4,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14,36; 225,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 150,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 175,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; 134,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>102,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>87,48%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>318,93%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>152,86%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>2.46061356646867</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.884867690101926</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.294110753678579</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.676575907574438</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.055814008775636</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9533631015561583</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>3.137952502620091</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.663238133110553</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 7,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 6,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 7,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 10,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-63,03; 1162,55</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-28,67; 388,73</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>73,07; 1304,09</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; 832,95</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.870247030508126</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.9734021984399586</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.894983156629907</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.104245202362007</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6293296411187458</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2604667529758146</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.7032169095355421</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.211142470264752</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.878350898074369</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.791828368643621</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.213502611656246</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.36004512407394</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>4.263931120103525</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>13.1397516041602</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>8.83559018433875</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>132,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>94,33%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>79,67%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>101,34%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 9,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 4,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 5,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 7,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-48,18; 642,41</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,08; 357,94</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-28,25; 271,88</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 324,63</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>4.805742194547533</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.268355449725332</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.985157019217872</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.544084537734862</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.413206172674716</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9582618395171598</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.8463446428838114</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.9761998284231959</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>130,07%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>39,97%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,58%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.213406039927879</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3210810066176775</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.153089489310565</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.007506562818281119</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4430596948101997</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2196736046104178</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2482361478551041</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.0818719658012234</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 4,03</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 6,08</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 4,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,0; 4,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-74,11; 253,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,59; 520,11</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-33,83; 195,46</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-67,43; 168,02</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.230792396917217</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.496977639677262</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.471855081944851</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.537842233711459</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>6.639940911617209</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.708211803818092</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.769571694796271</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.190122274992569</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +881,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>136,39%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-23,69%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>22,93%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.4953260216806636</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.490139451651998</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.88252478009611</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4028050613715098</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1186691542869921</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.439591210064441</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.423812114494115</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.07093536683722401</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 7,49</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 1,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 4,7</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>31,28; 339,47</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-65,85; 86,8</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-44,35; 167,4</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.686126538597119</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7953592773543039</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.805024746441847</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.054744866784924</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7286905573674354</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2896275133603009</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3255949360602631</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6790337669996108</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.969075449127056</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.181241106750744</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.082537422666058</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.373250640322663</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.534183441874627</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.710617816756693</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.044137243410098</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.710444698943675</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>98,79%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>60,24%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>82,33%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>51,08%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 5,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 3,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 4,4</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 4,29</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>14,36; 225,61</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 150,58</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 175,61</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; 134,07</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.830300790265224</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.837096095685697</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.865827087626749</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.664655929241776</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.8093094222052704</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.129628731631173</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8491376897876167</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.6331903829588746</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7662746728381256</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.9633591252478569</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5247303866893323</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.7075867433650397</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.2102496127369262</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2265833182637967</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.09078150052087558</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1817755610316053</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.647099214133079</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.465128036006638</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.435415566126625</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.207794504369369</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>2.704602440020905</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.70270369960276</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.799815587908952</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.798035452164935</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
